--- a/Prototype.xlsx
+++ b/Prototype.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Email</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Team will have many Comments</t>
+  </si>
+  <si>
+    <t>User_Name</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
   <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,10 +627,10 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
